--- a/gap_result_0_F.xlsx
+++ b/gap_result_0_F.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.0003356363769585965</v>
+        <v>-0.0004341343634022138</v>
       </c>
       <c r="D2">
-        <v>0.9706806119907658</v>
+        <v>0.9636069320242556</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.05852182190897257</v>
+        <v>-0.0389790390975076</v>
       </c>
       <c r="D3">
-        <v>0.03045069502962281</v>
+        <v>0.1661976278830126</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -494,7 +494,7 @@
         <v>15</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.01167507316415325</v>
+        <v>-0.04254208093616865</v>
       </c>
       <c r="D4">
-        <v>0.4863684717872635</v>
+        <v>0.01499192641613992</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -520,7 +520,7 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>0.03385581512665334</v>
+        <v>-0.03235584644939561</v>
       </c>
       <c r="D5">
-        <v>0.03748282002654726</v>
+        <v>0.05716585490891313</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>-0.008296652426929103</v>
+        <v>0.001182953495315808</v>
       </c>
       <c r="D6">
-        <v>0.5426949934862614</v>
+        <v>0.933583459075235</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/gap_result_0_F.xlsx
+++ b/gap_result_0_F.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.0004341343634022138</v>
+        <v>-0.0002464319275645721</v>
       </c>
       <c r="D2">
-        <v>0.9636069320242556</v>
+        <v>0.9790459372706589</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.0389790390975076</v>
+        <v>-0.04493408053494274</v>
       </c>
       <c r="D3">
-        <v>0.1661976278830126</v>
+        <v>0.08307877835085933</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.04254208093616865</v>
+        <v>-0.03920893887012396</v>
       </c>
       <c r="D4">
-        <v>0.01499192641613992</v>
+        <v>0.02155774138638452</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.03235584644939561</v>
+        <v>-0.03243228265314447</v>
       </c>
       <c r="D5">
-        <v>0.05716585490891313</v>
+        <v>0.04921860562345243</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -546,7 +546,7 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.001182953495315808</v>
+        <v>0.005272006347894542</v>
       </c>
       <c r="D6">
-        <v>0.933583459075235</v>
+        <v>0.6992477337405986</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/gap_result_0_F.xlsx
+++ b/gap_result_0_F.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.0002464319275645721</v>
+        <v>-0.0004341343633988831</v>
       </c>
       <c r="D2">
-        <v>0.9790459372706589</v>
+        <v>0.9636069320245345</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.04493408053494274</v>
+        <v>-0.03897903909750779</v>
       </c>
       <c r="D3">
-        <v>0.08307877835085933</v>
+        <v>0.1661976278830091</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.03920893887012396</v>
+        <v>-0.04254208093616793</v>
       </c>
       <c r="D4">
-        <v>0.02155774138638452</v>
+        <v>0.01499192641614126</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.03243228265314447</v>
+        <v>-0.03235584644939585</v>
       </c>
       <c r="D5">
-        <v>0.04921860562345243</v>
+        <v>0.05716585490891036</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -546,7 +546,7 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.005272006347894542</v>
+        <v>0.001182953495315808</v>
       </c>
       <c r="D6">
-        <v>0.6992477337405986</v>
+        <v>0.9335834590752347</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/gap_result_0_F.xlsx
+++ b/gap_result_0_F.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.0004341343633988831</v>
+        <v>-0.000985289146219856</v>
       </c>
       <c r="D2">
-        <v>0.9636069320245345</v>
+        <v>0.9175784187912788</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.03897903909750779</v>
+        <v>-0.03896237144279468</v>
       </c>
       <c r="D3">
-        <v>0.1661976278830091</v>
+        <v>0.1666636498836257</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.04254208093616793</v>
+        <v>-0.04261413078508577</v>
       </c>
       <c r="D4">
-        <v>0.01499192641614126</v>
+        <v>0.01488988709122306</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.03235584644939585</v>
+        <v>-0.03241202415775708</v>
       </c>
       <c r="D5">
-        <v>0.05716585490891036</v>
+        <v>0.05690276776454378</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.001182953495315808</v>
+        <v>0.001150917157012382</v>
       </c>
       <c r="D6">
-        <v>0.9335834590752347</v>
+        <v>0.9354215100589863</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/gap_result_0_F.xlsx
+++ b/gap_result_0_F.xlsx
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
